--- a/firstmeasurebycountry.xlsx
+++ b/firstmeasurebycountry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1179">
   <si>
     <t>id</t>
   </si>
@@ -1686,9 +1686,6 @@
   </si>
   <si>
     <t>African Union, Arab League</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
   </si>
   <si>
     <t>Mongolia</t>
@@ -3719,25 +3716,25 @@
         <v>550</v>
       </c>
       <c r="M2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P2" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="R2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S2" t="s">
         <v>1151</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1152</v>
       </c>
       <c r="T2" t="e">
         <v>#N/A</v>
@@ -3793,25 +3790,25 @@
         <v>550</v>
       </c>
       <c r="M3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P3" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R3" t="e">
         <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T3" t="e">
         <v>#N/A</v>
@@ -3867,25 +3864,25 @@
         <v>551</v>
       </c>
       <c r="M4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P4" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T4" t="e">
         <v>#N/A</v>
@@ -3941,22 +3938,22 @@
         <v>552</v>
       </c>
       <c r="M5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P5" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S5" t="e">
         <v>#N/A</v>
@@ -4015,25 +4012,25 @@
         <v>553</v>
       </c>
       <c r="M6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P6" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="R6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T6" t="e">
         <v>#N/A</v>
@@ -4089,25 +4086,25 @@
         <v>554</v>
       </c>
       <c r="M7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P7" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T7" t="e">
         <v>#N/A</v>
@@ -4163,19 +4160,19 @@
         <v>553</v>
       </c>
       <c r="M8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P8" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R8" t="e">
         <v>#N/A</v>
@@ -4237,25 +4234,25 @@
         <v>555</v>
       </c>
       <c r="M9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P9" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S9" t="s">
         <v>1151</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1152</v>
       </c>
       <c r="T9" t="e">
         <v>#N/A</v>
@@ -4311,25 +4308,25 @@
         <v>551</v>
       </c>
       <c r="M10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P10" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T10" t="e">
         <v>#N/A</v>
@@ -4385,25 +4382,25 @@
         <v>552</v>
       </c>
       <c r="M11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P11" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S11" t="s">
         <v>1151</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1152</v>
       </c>
       <c r="T11" t="e">
         <v>#N/A</v>
@@ -4459,25 +4456,25 @@
         <v>551</v>
       </c>
       <c r="M12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P12" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
@@ -4536,22 +4533,22 @@
         <v>535</v>
       </c>
       <c r="N13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P13" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T13" t="e">
         <v>#N/A</v>
@@ -4607,25 +4604,25 @@
         <v>554</v>
       </c>
       <c r="M14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P14" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R14" t="e">
         <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
@@ -4681,25 +4678,25 @@
         <v>555</v>
       </c>
       <c r="M15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S15" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
@@ -4755,25 +4752,25 @@
         <v>556</v>
       </c>
       <c r="M16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O16" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P16" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R16" t="e">
         <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
@@ -4829,25 +4826,25 @@
         <v>551</v>
       </c>
       <c r="M17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P17" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
@@ -4903,25 +4900,25 @@
         <v>551</v>
       </c>
       <c r="M18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P18" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R18" t="e">
         <v>#N/A</v>
       </c>
       <c r="S18" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -4977,25 +4974,25 @@
         <v>556</v>
       </c>
       <c r="M19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P19" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R19" t="e">
         <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
@@ -5051,25 +5048,25 @@
         <v>554</v>
       </c>
       <c r="M20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P20" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R20" t="e">
         <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
@@ -5125,25 +5122,25 @@
         <v>554</v>
       </c>
       <c r="M21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P21" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q21" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R21" t="e">
         <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
@@ -5199,25 +5196,25 @@
         <v>557</v>
       </c>
       <c r="M22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P22" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
@@ -5273,25 +5270,25 @@
         <v>554</v>
       </c>
       <c r="M23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P23" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R23" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S23" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
@@ -5347,25 +5344,25 @@
         <v>554</v>
       </c>
       <c r="M24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P24" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S24" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
@@ -5421,25 +5418,25 @@
         <v>553</v>
       </c>
       <c r="M25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P25" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
@@ -5495,13 +5492,13 @@
         <v>550</v>
       </c>
       <c r="M26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O26" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P26" t="e">
         <v>#N/A</v>
@@ -5513,7 +5510,7 @@
         <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
@@ -5569,25 +5566,25 @@
         <v>551</v>
       </c>
       <c r="M27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P27" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R27" t="e">
         <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -5643,28 +5640,28 @@
         <v>550</v>
       </c>
       <c r="M28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P28" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q28" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R28" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S28" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T28" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="U28" t="n">
         <v>-1.0</v>
@@ -5717,25 +5714,25 @@
         <v>550</v>
       </c>
       <c r="M29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P29" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R29" t="e">
         <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -5791,25 +5788,25 @@
         <v>555</v>
       </c>
       <c r="M30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P30" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R30" t="e">
         <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -5865,25 +5862,25 @@
         <v>555</v>
       </c>
       <c r="M31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O31" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P31" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q31" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R31" t="e">
         <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -5939,25 +5936,25 @@
         <v>554</v>
       </c>
       <c r="M32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P32" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q32" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -6013,25 +6010,25 @@
         <v>550</v>
       </c>
       <c r="M33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N33" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P33" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R33" t="e">
         <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -6087,25 +6084,25 @@
         <v>550</v>
       </c>
       <c r="M34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P34" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -6158,31 +6155,31 @@
         <v>532</v>
       </c>
       <c r="L35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P35" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R35" t="e">
         <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U35" t="n">
         <v>1.0</v>
@@ -6235,22 +6232,22 @@
         <v>555</v>
       </c>
       <c r="M36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P36" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S36" t="e">
         <v>#N/A</v>
@@ -6309,25 +6306,25 @@
         <v>555</v>
       </c>
       <c r="M37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O37" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P37" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q37" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R37" t="e">
         <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T37" t="e">
         <v>#N/A</v>
@@ -6383,25 +6380,25 @@
         <v>550</v>
       </c>
       <c r="M38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P38" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R38" t="e">
         <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T38" t="e">
         <v>#N/A</v>
@@ -6457,25 +6454,25 @@
         <v>552</v>
       </c>
       <c r="M39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O39" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P39" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R39" t="e">
         <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T39" t="e">
         <v>#N/A</v>
@@ -6531,25 +6528,25 @@
         <v>550</v>
       </c>
       <c r="M40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O40" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P40" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="R40" t="e">
         <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T40" t="e">
         <v>#N/A</v>
@@ -6605,25 +6602,25 @@
         <v>555</v>
       </c>
       <c r="M41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O41" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P41" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R41" t="e">
         <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T41" t="e">
         <v>#N/A</v>
@@ -6679,19 +6676,19 @@
         <v>556</v>
       </c>
       <c r="M42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N42" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P42" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q42" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R42" t="e">
         <v>#N/A</v>
@@ -6753,25 +6750,25 @@
         <v>550</v>
       </c>
       <c r="M43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O43" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P43" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q43" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R43" t="e">
         <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T43" t="e">
         <v>#N/A</v>
@@ -6827,25 +6824,25 @@
         <v>550</v>
       </c>
       <c r="M44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N44" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O44" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P44" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q44" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R44" t="e">
         <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T44" t="e">
         <v>#N/A</v>
@@ -6901,25 +6898,25 @@
         <v>555</v>
       </c>
       <c r="M45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O45" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P45" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R45" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S45" t="s">
         <v>1151</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1152</v>
       </c>
       <c r="T45" t="e">
         <v>#N/A</v>
@@ -6975,28 +6972,28 @@
         <v>557</v>
       </c>
       <c r="M46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N46" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P46" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R46" t="e">
         <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T46" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="U46" t="n">
         <v>1.0</v>
@@ -7049,25 +7046,25 @@
         <v>557</v>
       </c>
       <c r="M47" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O47" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P47" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
       </c>
       <c r="S47" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T47" t="e">
         <v>#N/A</v>
@@ -7123,28 +7120,28 @@
         <v>555</v>
       </c>
       <c r="M48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O48" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P48" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R48" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S48" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T48" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="U48" t="n">
         <v>-1.0</v>
@@ -7197,13 +7194,13 @@
         <v>553</v>
       </c>
       <c r="M49" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P49" t="e">
         <v>#N/A</v>
@@ -7271,19 +7268,19 @@
         <v>550</v>
       </c>
       <c r="M50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N50" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O50" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P50" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q50" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R50" t="e">
         <v>#N/A</v>
@@ -7292,7 +7289,7 @@
         <v>#N/A</v>
       </c>
       <c r="T50" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U50" t="n">
         <v>-1.0</v>
@@ -7345,19 +7342,19 @@
         <v>550</v>
       </c>
       <c r="M51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O51" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P51" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q51" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R51" t="e">
         <v>#N/A</v>
@@ -7419,25 +7416,25 @@
         <v>550</v>
       </c>
       <c r="M52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N52" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O52" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P52" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q52" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R52" t="e">
         <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T52" t="e">
         <v>#N/A</v>
@@ -7493,22 +7490,22 @@
         <v>556</v>
       </c>
       <c r="M53" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O53" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P53" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R53" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S53" t="e">
         <v>#N/A</v>
@@ -7567,25 +7564,25 @@
         <v>551</v>
       </c>
       <c r="M54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N54" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O54" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P54" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q54" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R54" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S54" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T54" t="e">
         <v>#N/A</v>
@@ -7641,19 +7638,19 @@
         <v>557</v>
       </c>
       <c r="M55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O55" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P55" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q55" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="R55" t="e">
         <v>#N/A</v>
@@ -7715,28 +7712,28 @@
         <v>551</v>
       </c>
       <c r="M56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O56" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P56" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q56" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="R56" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S56" t="e">
         <v>#N/A</v>
       </c>
       <c r="T56" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="U56" t="n">
         <v>1.0</v>
@@ -7789,25 +7786,25 @@
         <v>553</v>
       </c>
       <c r="M57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N57" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O57" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P57" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q57" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="R57" t="e">
         <v>#N/A</v>
       </c>
       <c r="S57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T57" t="e">
         <v>#N/A</v>
@@ -7863,25 +7860,25 @@
         <v>550</v>
       </c>
       <c r="M58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N58" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O58" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P58" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q58" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="R58" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T58" t="e">
         <v>#N/A</v>
@@ -7937,25 +7934,25 @@
         <v>555</v>
       </c>
       <c r="M59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N59" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P59" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="R59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T59" t="e">
         <v>#N/A</v>
@@ -8011,13 +8008,13 @@
         <v>550</v>
       </c>
       <c r="M60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O60" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P60" t="e">
         <v>#N/A</v>
@@ -8029,7 +8026,7 @@
         <v>#N/A</v>
       </c>
       <c r="S60" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T60" t="e">
         <v>#N/A</v>
@@ -8085,25 +8082,25 @@
         <v>554</v>
       </c>
       <c r="M61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N61" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O61" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P61" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R61" t="e">
         <v>#N/A</v>
       </c>
       <c r="S61" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T61" t="e">
         <v>#N/A</v>
@@ -8159,25 +8156,25 @@
         <v>555</v>
       </c>
       <c r="M62" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N62" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O62" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P62" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q62" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R62" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S62" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T62" t="e">
         <v>#N/A</v>
@@ -8233,25 +8230,25 @@
         <v>554</v>
       </c>
       <c r="M63" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O63" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P63" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q63" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R63" t="e">
         <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T63" t="e">
         <v>#N/A</v>
@@ -8307,25 +8304,25 @@
         <v>551</v>
       </c>
       <c r="M64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N64" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O64" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P64" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q64" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R64" t="e">
         <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T64" t="e">
         <v>#N/A</v>
@@ -8381,25 +8378,25 @@
         <v>554</v>
       </c>
       <c r="M65" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N65" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O65" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P65" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q65" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T65" t="e">
         <v>#N/A</v>
@@ -8455,25 +8452,25 @@
         <v>555</v>
       </c>
       <c r="M66" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N66" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O66" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P66" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q66" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R66" t="e">
         <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T66" t="e">
         <v>#N/A</v>
@@ -8529,22 +8526,22 @@
         <v>551</v>
       </c>
       <c r="M67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N67" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O67" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P67" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q67" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R67" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S67" t="e">
         <v>#N/A</v>
@@ -8603,28 +8600,28 @@
         <v>551</v>
       </c>
       <c r="M68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N68" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O68" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P68" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q68" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R68" t="e">
         <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T68" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="U68" t="n">
         <v>-1.0</v>
@@ -8677,25 +8674,25 @@
         <v>552</v>
       </c>
       <c r="M69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O69" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P69" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q69" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R69" t="e">
         <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T69" t="e">
         <v>#N/A</v>
@@ -8751,25 +8748,25 @@
         <v>554</v>
       </c>
       <c r="M70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N70" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O70" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P70" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q70" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R70" t="e">
         <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T70" t="e">
         <v>#N/A</v>
@@ -8825,25 +8822,25 @@
         <v>554</v>
       </c>
       <c r="M71" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N71" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O71" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P71" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q71" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="R71" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S71" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T71" t="e">
         <v>#N/A</v>
@@ -8899,25 +8896,25 @@
         <v>550</v>
       </c>
       <c r="M72" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N72" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O72" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P72" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q72" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R72" t="e">
         <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T72" t="e">
         <v>#N/A</v>
@@ -8973,28 +8970,28 @@
         <v>555</v>
       </c>
       <c r="M73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O73" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P73" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R73" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S73" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T73" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="U73" t="n">
         <v>-1.0</v>
@@ -9047,25 +9044,25 @@
         <v>554</v>
       </c>
       <c r="M74" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N74" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O74" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P74" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q74" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R74" t="e">
         <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T74" t="e">
         <v>#N/A</v>
@@ -9121,22 +9118,22 @@
         <v>551</v>
       </c>
       <c r="M75" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N75" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O75" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P75" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q75" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R75" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S75" t="e">
         <v>#N/A</v>
@@ -9195,25 +9192,25 @@
         <v>555</v>
       </c>
       <c r="M76" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N76" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O76" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P76" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q76" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R76" t="e">
         <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T76" t="e">
         <v>#N/A</v>
@@ -9269,25 +9266,25 @@
         <v>550</v>
       </c>
       <c r="M77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O77" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P77" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q77" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R77" t="e">
         <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T77" t="e">
         <v>#N/A</v>
@@ -9343,25 +9340,25 @@
         <v>550</v>
       </c>
       <c r="M78" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N78" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O78" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P78" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q78" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R78" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S78" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T78" t="e">
         <v>#N/A</v>
@@ -9417,22 +9414,22 @@
         <v>556</v>
       </c>
       <c r="M79" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N79" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O79" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P79" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q79" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R79" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S79" t="e">
         <v>#N/A</v>
@@ -9491,25 +9488,25 @@
         <v>555</v>
       </c>
       <c r="M80" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N80" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O80" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P80" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q80" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R80" t="e">
         <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T80" t="e">
         <v>#N/A</v>
@@ -9565,25 +9562,25 @@
         <v>550</v>
       </c>
       <c r="M81" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O81" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P81" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q81" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R81" t="e">
         <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T81" t="e">
         <v>#N/A</v>
@@ -9639,25 +9636,25 @@
         <v>554</v>
       </c>
       <c r="M82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N82" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O82" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P82" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R82" t="e">
         <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T82" t="e">
         <v>#N/A</v>
@@ -9713,25 +9710,25 @@
         <v>555</v>
       </c>
       <c r="M83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N83" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O83" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P83" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q83" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R83" t="e">
         <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T83" t="e">
         <v>#N/A</v>
@@ -9787,19 +9784,19 @@
         <v>552</v>
       </c>
       <c r="M84" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N84" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O84" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P84" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q84" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R84" t="e">
         <v>#N/A</v>
@@ -9861,25 +9858,25 @@
         <v>550</v>
       </c>
       <c r="M85" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N85" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O85" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P85" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q85" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R85" t="e">
         <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T85" t="e">
         <v>#N/A</v>
@@ -9935,25 +9932,25 @@
         <v>553</v>
       </c>
       <c r="M86" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N86" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O86" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P86" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q86" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="R86" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S86" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T86" t="e">
         <v>#N/A</v>
@@ -10009,25 +10006,25 @@
         <v>555</v>
       </c>
       <c r="M87" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O87" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P87" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q87" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R87" t="e">
         <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T87" t="e">
         <v>#N/A</v>
@@ -10083,13 +10080,13 @@
         <v>551</v>
       </c>
       <c r="M88" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O88" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P88" t="e">
         <v>#N/A</v>
@@ -10101,7 +10098,7 @@
         <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T88" t="e">
         <v>#N/A</v>
@@ -10157,25 +10154,25 @@
         <v>550</v>
       </c>
       <c r="M89" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O89" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P89" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q89" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R89" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S89" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T89" t="e">
         <v>#N/A</v>
@@ -10231,28 +10228,28 @@
         <v>553</v>
       </c>
       <c r="M90" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N90" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O90" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P90" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q90" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R90" t="e">
         <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T90" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U90" t="n">
         <v>1.0</v>
@@ -10305,13 +10302,13 @@
         <v>551</v>
       </c>
       <c r="M91" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O91" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P91" t="e">
         <v>#N/A</v>
@@ -10323,7 +10320,7 @@
         <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T91" t="e">
         <v>#N/A</v>
@@ -10379,25 +10376,25 @@
         <v>552</v>
       </c>
       <c r="M92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N92" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O92" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P92" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q92" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R92" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S92" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T92" t="e">
         <v>#N/A</v>
@@ -10453,25 +10450,25 @@
         <v>553</v>
       </c>
       <c r="M93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N93" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O93" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P93" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q93" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R93" t="e">
         <v>#N/A</v>
       </c>
       <c r="S93" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T93" t="e">
         <v>#N/A</v>
@@ -10527,25 +10524,25 @@
         <v>555</v>
       </c>
       <c r="M94" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N94" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O94" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P94" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q94" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R94" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S94" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T94" t="e">
         <v>#N/A</v>
@@ -10601,25 +10598,25 @@
         <v>551</v>
       </c>
       <c r="M95" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N95" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O95" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P95" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q95" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R95" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S95" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T95" t="e">
         <v>#N/A</v>
@@ -10675,13 +10672,13 @@
         <v>551</v>
       </c>
       <c r="M96" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N96" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O96" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P96" t="e">
         <v>#N/A</v>
@@ -10693,7 +10690,7 @@
         <v>#N/A</v>
       </c>
       <c r="S96" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T96" t="e">
         <v>#N/A</v>
@@ -10749,22 +10746,22 @@
         <v>556</v>
       </c>
       <c r="M97" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N97" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O97" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P97" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q97" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S97" t="e">
         <v>#N/A</v>
@@ -10823,25 +10820,25 @@
         <v>554</v>
       </c>
       <c r="M98" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N98" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O98" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P98" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q98" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
       </c>
       <c r="S98" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="T98" t="e">
         <v>#N/A</v>
@@ -10897,25 +10894,25 @@
         <v>550</v>
       </c>
       <c r="M99" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N99" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O99" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P99" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q99" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R99" t="e">
         <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T99" t="e">
         <v>#N/A</v>
@@ -10971,25 +10968,25 @@
         <v>551</v>
       </c>
       <c r="M100" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N100" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O100" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P100" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q100" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R100" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S100" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T100" t="e">
         <v>#N/A</v>
@@ -11045,19 +11042,19 @@
         <v>553</v>
       </c>
       <c r="M101" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N101" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O101" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P101" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q101" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R101" t="e">
         <v>#N/A</v>
@@ -11119,25 +11116,25 @@
         <v>550</v>
       </c>
       <c r="M102" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N102" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O102" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P102" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q102" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R102" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S102" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T102" t="e">
         <v>#N/A</v>
@@ -11193,25 +11190,25 @@
         <v>551</v>
       </c>
       <c r="M103" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N103" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O103" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P103" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q103" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R103" t="e">
         <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T103" t="e">
         <v>#N/A</v>
@@ -11267,25 +11264,25 @@
         <v>551</v>
       </c>
       <c r="M104" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N104" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O104" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P104" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q104" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R104" t="e">
         <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T104" t="e">
         <v>#N/A</v>
@@ -11341,28 +11338,28 @@
         <v>552</v>
       </c>
       <c r="M105" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N105" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O105" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P105" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q105" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R105" t="e">
         <v>#N/A</v>
       </c>
       <c r="S105" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T105" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="U105" t="n">
         <v>-1.0</v>
@@ -11415,22 +11412,22 @@
         <v>552</v>
       </c>
       <c r="M106" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N106" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O106" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P106" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q106" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R106" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S106" t="e">
         <v>#N/A</v>
@@ -11489,25 +11486,25 @@
         <v>550</v>
       </c>
       <c r="M107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N107" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P107" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q107" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R107" t="e">
         <v>#N/A</v>
       </c>
       <c r="S107" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T107" t="e">
         <v>#N/A</v>
@@ -11563,25 +11560,25 @@
         <v>550</v>
       </c>
       <c r="M108" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N108" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O108" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P108" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q108" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="R108" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S108" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T108" t="e">
         <v>#N/A</v>
@@ -11637,13 +11634,13 @@
         <v>550</v>
       </c>
       <c r="M109" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N109" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O109" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P109" t="e">
         <v>#N/A</v>
@@ -11711,28 +11708,28 @@
         <v>554</v>
       </c>
       <c r="M110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O110" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P110" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q110" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="R110" t="e">
         <v>#N/A</v>
       </c>
       <c r="S110" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T110" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="U110" t="n">
         <v>1.0</v>
@@ -11785,19 +11782,19 @@
         <v>551</v>
       </c>
       <c r="M111" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N111" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O111" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P111" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q111" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R111" t="e">
         <v>#N/A</v>
@@ -11859,25 +11856,25 @@
         <v>550</v>
       </c>
       <c r="M112" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N112" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O112" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P112" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q112" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R112" t="e">
         <v>#N/A</v>
       </c>
       <c r="S112" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T112" t="e">
         <v>#N/A</v>
@@ -11933,25 +11930,25 @@
         <v>554</v>
       </c>
       <c r="M113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N113" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O113" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P113" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q113" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="R113" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S113" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T113" t="e">
         <v>#N/A</v>
@@ -12007,22 +12004,22 @@
         <v>552</v>
       </c>
       <c r="M114" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N114" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O114" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P114" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q114" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="R114" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S114" t="e">
         <v>#N/A</v>
@@ -12081,28 +12078,28 @@
         <v>550</v>
       </c>
       <c r="M115" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N115" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O115" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P115" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q115" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R115" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S115" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T115" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="U115" t="n">
         <v>1.0</v>
@@ -12155,25 +12152,25 @@
         <v>551</v>
       </c>
       <c r="M116" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N116" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O116" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P116" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q116" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="R116" t="e">
         <v>#N/A</v>
       </c>
       <c r="S116" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T116" t="e">
         <v>#N/A</v>
@@ -12229,25 +12226,25 @@
         <v>554</v>
       </c>
       <c r="M117" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N117" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O117" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P117" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q117" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="R117" t="e">
         <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T117" t="e">
         <v>#N/A</v>
@@ -12303,25 +12300,25 @@
         <v>550</v>
       </c>
       <c r="M118" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N118" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O118" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P118" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q118" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R118" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S118" t="s">
         <v>1151</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1152</v>
       </c>
       <c r="T118" t="e">
         <v>#N/A</v>
@@ -12377,25 +12374,25 @@
         <v>550</v>
       </c>
       <c r="M119" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N119" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O119" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P119" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q119" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R119" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S119" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T119" t="e">
         <v>#N/A</v>
@@ -12451,25 +12448,25 @@
         <v>551</v>
       </c>
       <c r="M120" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N120" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O120" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P120" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q120" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R120" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S120" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T120" t="e">
         <v>#N/A</v>
@@ -12525,25 +12522,25 @@
         <v>555</v>
       </c>
       <c r="M121" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N121" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O121" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P121" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q121" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="R121" t="e">
         <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T121" t="e">
         <v>#N/A</v>
@@ -12599,25 +12596,25 @@
         <v>551</v>
       </c>
       <c r="M122" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N122" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O122" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P122" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q122" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R122" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S122" t="s">
         <v>1151</v>
-      </c>
-      <c r="S122" t="s">
-        <v>1152</v>
       </c>
       <c r="T122" t="e">
         <v>#N/A</v>
@@ -12673,25 +12670,25 @@
         <v>551</v>
       </c>
       <c r="M123" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N123" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O123" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P123" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q123" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="R123" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S123" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T123" t="e">
         <v>#N/A</v>
@@ -12747,25 +12744,25 @@
         <v>554</v>
       </c>
       <c r="M124" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N124" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O124" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P124" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q124" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="R124" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S124" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T124" t="e">
         <v>#N/A</v>
@@ -12821,25 +12818,25 @@
         <v>555</v>
       </c>
       <c r="M125" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N125" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O125" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P125" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q125" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R125" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S125" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T125" t="e">
         <v>#N/A</v>
@@ -12895,28 +12892,28 @@
         <v>551</v>
       </c>
       <c r="M126" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N126" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O126" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P126" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q126" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R126" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S126" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T126" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="U126" t="n">
         <v>-1.0</v>
@@ -12969,13 +12966,13 @@
         <v>557</v>
       </c>
       <c r="M127" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N127" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O127" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P127" t="e">
         <v>#N/A</v>
@@ -12987,7 +12984,7 @@
         <v>#N/A</v>
       </c>
       <c r="S127" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T127" t="e">
         <v>#N/A</v>
@@ -13043,25 +13040,25 @@
         <v>550</v>
       </c>
       <c r="M128" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N128" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O128" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P128" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q128" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="R128" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S128" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T128" t="e">
         <v>#N/A</v>
@@ -13117,25 +13114,25 @@
         <v>556</v>
       </c>
       <c r="M129" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N129" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O129" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P129" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q129" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R129" t="e">
         <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T129" t="e">
         <v>#N/A</v>
@@ -13191,25 +13188,25 @@
         <v>550</v>
       </c>
       <c r="M130" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N130" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P130" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q130" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="R130" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S130" t="s">
         <v>1151</v>
-      </c>
-      <c r="S130" t="s">
-        <v>1152</v>
       </c>
       <c r="T130" t="e">
         <v>#N/A</v>
@@ -13265,28 +13262,28 @@
         <v>550</v>
       </c>
       <c r="M131" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N131" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O131" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P131" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q131" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R131" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S131" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T131" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U131" t="n">
         <v>1.0</v>
@@ -13339,25 +13336,25 @@
         <v>550</v>
       </c>
       <c r="M132" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N132" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O132" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P132" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q132" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R132" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S132" t="s">
         <v>1151</v>
-      </c>
-      <c r="S132" t="s">
-        <v>1152</v>
       </c>
       <c r="T132" t="e">
         <v>#N/A</v>
@@ -13413,28 +13410,28 @@
         <v>555</v>
       </c>
       <c r="M133" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N133" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O133" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P133" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q133" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R133" t="e">
         <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T133" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="U133" t="n">
         <v>1.0</v>
@@ -13487,25 +13484,25 @@
         <v>550</v>
       </c>
       <c r="M134" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N134" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O134" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P134" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q134" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R134" t="e">
         <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T134" t="e">
         <v>#N/A</v>
@@ -13561,25 +13558,25 @@
         <v>552</v>
       </c>
       <c r="M135" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N135" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O135" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P135" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q135" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R135" t="e">
         <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T135" t="e">
         <v>#N/A</v>
@@ -13635,25 +13632,25 @@
         <v>551</v>
       </c>
       <c r="M136" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N136" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O136" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P136" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q136" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R136" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S136" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T136" t="e">
         <v>#N/A</v>
@@ -13709,25 +13706,25 @@
         <v>554</v>
       </c>
       <c r="M137" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N137" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O137" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P137" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q137" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R137" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S137" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T137" t="e">
         <v>#N/A</v>
@@ -13783,25 +13780,25 @@
         <v>551</v>
       </c>
       <c r="M138" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N138" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O138" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P138" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q138" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R138" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S138" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T138" t="e">
         <v>#N/A</v>
@@ -13857,25 +13854,25 @@
         <v>551</v>
       </c>
       <c r="M139" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N139" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O139" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P139" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q139" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R139" t="e">
         <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T139" t="e">
         <v>#N/A</v>
@@ -13931,25 +13928,25 @@
         <v>555</v>
       </c>
       <c r="M140" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N140" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O140" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P140" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q140" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="R140" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S140" t="s">
         <v>1151</v>
-      </c>
-      <c r="S140" t="s">
-        <v>1152</v>
       </c>
       <c r="T140" t="e">
         <v>#N/A</v>
@@ -14005,13 +14002,13 @@
         <v>551</v>
       </c>
       <c r="M141" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N141" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O141" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P141" t="e">
         <v>#N/A</v>
@@ -14023,7 +14020,7 @@
         <v>#N/A</v>
       </c>
       <c r="S141" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T141" t="e">
         <v>#N/A</v>
@@ -14079,25 +14076,25 @@
         <v>550</v>
       </c>
       <c r="M142" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N142" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O142" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P142" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q142" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R142" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S142" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T142" t="e">
         <v>#N/A</v>
@@ -14153,25 +14150,25 @@
         <v>550</v>
       </c>
       <c r="M143" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N143" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O143" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P143" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q143" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R143" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S143" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T143" t="e">
         <v>#N/A</v>
@@ -14227,13 +14224,13 @@
         <v>551</v>
       </c>
       <c r="M144" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N144" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O144" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P144" t="e">
         <v>#N/A</v>
@@ -14245,7 +14242,7 @@
         <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T144" t="e">
         <v>#N/A</v>
@@ -14301,25 +14298,25 @@
         <v>551</v>
       </c>
       <c r="M145" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N145" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O145" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P145" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q145" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R145" t="e">
         <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T145" t="e">
         <v>#N/A</v>
@@ -14375,28 +14372,28 @@
         <v>554</v>
       </c>
       <c r="M146" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N146" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O146" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P146" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q146" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R146" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S146" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T146" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="U146" t="n">
         <v>1.0</v>
@@ -14449,25 +14446,25 @@
         <v>556</v>
       </c>
       <c r="M147" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N147" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O147" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P147" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q147" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R147" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S147" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T147" t="e">
         <v>#N/A</v>
@@ -14523,25 +14520,25 @@
         <v>550</v>
       </c>
       <c r="M148" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N148" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O148" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P148" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q148" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R148" t="e">
         <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T148" t="e">
         <v>#N/A</v>
@@ -14597,13 +14594,13 @@
         <v>554</v>
       </c>
       <c r="M149" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N149" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O149" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P149" t="e">
         <v>#N/A</v>
@@ -14615,7 +14612,7 @@
         <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T149" t="e">
         <v>#N/A</v>
@@ -14671,22 +14668,22 @@
         <v>554</v>
       </c>
       <c r="M150" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N150" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O150" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P150" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q150" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="R150" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S150" t="e">
         <v>#N/A</v>
@@ -14745,25 +14742,25 @@
         <v>551</v>
       </c>
       <c r="M151" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N151" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O151" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P151" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q151" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R151" t="e">
         <v>#N/A</v>
       </c>
       <c r="S151" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T151" t="e">
         <v>#N/A</v>
@@ -14819,25 +14816,25 @@
         <v>555</v>
       </c>
       <c r="M152" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N152" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O152" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P152" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q152" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R152" t="e">
         <v>#N/A</v>
       </c>
       <c r="S152" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T152" t="e">
         <v>#N/A</v>
@@ -14893,25 +14890,25 @@
         <v>555</v>
       </c>
       <c r="M153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N153" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O153" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P153" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q153" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R153" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S153" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T153" t="e">
         <v>#N/A</v>
@@ -14967,25 +14964,25 @@
         <v>550</v>
       </c>
       <c r="M154" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N154" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O154" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P154" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q154" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R154" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S154" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T154" t="e">
         <v>#N/A</v>
@@ -15041,25 +15038,25 @@
         <v>551</v>
       </c>
       <c r="M155" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N155" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O155" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P155" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q155" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R155" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S155" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T155" t="e">
         <v>#N/A</v>
@@ -15115,25 +15112,25 @@
         <v>557</v>
       </c>
       <c r="M156" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N156" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O156" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P156" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q156" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R156" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S156" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T156" t="e">
         <v>#N/A</v>
@@ -15189,25 +15186,25 @@
         <v>551</v>
       </c>
       <c r="M157" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N157" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O157" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P157" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q157" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R157" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S157" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T157" t="e">
         <v>#N/A</v>
@@ -15263,25 +15260,25 @@
         <v>554</v>
       </c>
       <c r="M158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N158" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O158" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P158" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q158" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R158" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T158" t="e">
         <v>#N/A</v>
@@ -15337,25 +15334,25 @@
         <v>551</v>
       </c>
       <c r="M159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N159" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O159" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P159" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q159" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="R159" t="e">
         <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T159" t="e">
         <v>#N/A</v>
@@ -15411,19 +15408,19 @@
         <v>550</v>
       </c>
       <c r="M160" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N160" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O160" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P160" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q160" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="R160" t="e">
         <v>#N/A</v>
@@ -15485,28 +15482,28 @@
         <v>554</v>
       </c>
       <c r="M161" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N161" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O161" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P161" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q161" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="R161" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S161" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T161" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="U161" t="n">
         <v>-1.0</v>
@@ -15559,25 +15556,25 @@
         <v>555</v>
       </c>
       <c r="M162" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N162" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O162" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P162" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q162" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R162" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S162" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T162" t="e">
         <v>#N/A</v>
@@ -15633,25 +15630,25 @@
         <v>555</v>
       </c>
       <c r="M163" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N163" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O163" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P163" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q163" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="R163" t="e">
         <v>#N/A</v>
       </c>
       <c r="S163" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T163" t="e">
         <v>#N/A</v>
@@ -15707,25 +15704,25 @@
         <v>555</v>
       </c>
       <c r="M164" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N164" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O164" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P164" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q164" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R164" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S164" t="s">
         <v>1151</v>
-      </c>
-      <c r="S164" t="s">
-        <v>1152</v>
       </c>
       <c r="T164" t="e">
         <v>#N/A</v>
@@ -15781,28 +15778,28 @@
         <v>550</v>
       </c>
       <c r="M165" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="N165" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O165" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P165" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q165" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="R165" t="e">
         <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T165" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="U165" t="n">
         <v>1.0</v>
@@ -15855,19 +15852,19 @@
         <v>551</v>
       </c>
       <c r="M166" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N166" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O166" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P166" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q166" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R166" t="e">
         <v>#N/A</v>
@@ -15929,22 +15926,22 @@
         <v>555</v>
       </c>
       <c r="M167" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N167" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O167" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P167" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q167" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R167" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S167" t="e">
         <v>#N/A</v>
@@ -16003,25 +16000,25 @@
         <v>551</v>
       </c>
       <c r="M168" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N168" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O168" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P168" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q168" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="R168" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S168" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T168" t="e">
         <v>#N/A</v>
@@ -16077,25 +16074,25 @@
         <v>555</v>
       </c>
       <c r="M169" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O169" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P169" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q169" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="R169" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S169" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T169" t="e">
         <v>#N/A</v>
@@ -16151,25 +16148,25 @@
         <v>554</v>
       </c>
       <c r="M170" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N170" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O170" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P170" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q170" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="R170" t="e">
         <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T170" t="e">
         <v>#N/A</v>
@@ -16225,13 +16222,13 @@
         <v>551</v>
       </c>
       <c r="M171" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N171" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O171" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P171" t="e">
         <v>#N/A</v>
@@ -16243,7 +16240,7 @@
         <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T171" t="e">
         <v>#N/A</v>
@@ -16299,25 +16296,25 @@
         <v>557</v>
       </c>
       <c r="M172" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O172" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P172" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q172" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R172" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S172" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T172" t="e">
         <v>#N/A</v>
@@ -16373,25 +16370,25 @@
         <v>550</v>
       </c>
       <c r="M173" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N173" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O173" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P173" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q173" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R173" t="e">
         <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T173" t="e">
         <v>#N/A</v>
@@ -16447,25 +16444,25 @@
         <v>550</v>
       </c>
       <c r="M174" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N174" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O174" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P174" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q174" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R174" t="e">
         <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T174" t="e">
         <v>#N/A</v>
@@ -16521,25 +16518,25 @@
         <v>555</v>
       </c>
       <c r="M175" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N175" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O175" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P175" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q175" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R175" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S175" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T175" t="e">
         <v>#N/A</v>
@@ -16595,25 +16592,25 @@
         <v>551</v>
       </c>
       <c r="M176" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N176" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O176" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P176" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q176" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R176" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S176" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T176" t="e">
         <v>#N/A</v>
@@ -16669,25 +16666,25 @@
         <v>551</v>
       </c>
       <c r="M177" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N177" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O177" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P177" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q177" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R177" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S177" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T177" t="e">
         <v>#N/A</v>
@@ -16743,25 +16740,25 @@
         <v>551</v>
       </c>
       <c r="M178" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N178" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O178" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P178" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q178" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R178" t="e">
         <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T178" t="e">
         <v>#N/A</v>
@@ -16817,28 +16814,28 @@
         <v>551</v>
       </c>
       <c r="M179" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N179" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O179" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P179" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q179" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R179" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S179" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T179" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U179" t="n">
         <v>1.0</v>
@@ -16891,22 +16888,22 @@
         <v>552</v>
       </c>
       <c r="M180" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N180" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O180" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P180" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q180" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R180" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S180" t="e">
         <v>#N/A</v>
@@ -16965,25 +16962,25 @@
         <v>555</v>
       </c>
       <c r="M181" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N181" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O181" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P181" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q181" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R181" t="e">
         <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T181" t="e">
         <v>#N/A</v>
@@ -17039,28 +17036,28 @@
         <v>551</v>
       </c>
       <c r="M182" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N182" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O182" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P182" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q182" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R182" t="e">
         <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T182" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="U182" t="n">
         <v>-1.0</v>
@@ -17113,25 +17110,25 @@
         <v>551</v>
       </c>
       <c r="M183" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N183" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O183" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P183" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q183" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R183" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S183" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T183" t="e">
         <v>#N/A</v>
@@ -17187,22 +17184,22 @@
         <v>550</v>
       </c>
       <c r="M184" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N184" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O184" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P184" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q184" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R184" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S184" t="e">
         <v>#N/A</v>
@@ -17261,25 +17258,25 @@
         <v>555</v>
       </c>
       <c r="M185" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N185" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O185" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P185" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q185" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R185" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S185" t="s">
         <v>1151</v>
-      </c>
-      <c r="S185" t="s">
-        <v>1152</v>
       </c>
       <c r="T185" t="e">
         <v>#N/A</v>
@@ -17335,22 +17332,22 @@
         <v>552</v>
       </c>
       <c r="M186" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N186" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O186" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P186" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q186" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R186" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S186" t="e">
         <v>#N/A</v>
@@ -17409,25 +17406,25 @@
         <v>555</v>
       </c>
       <c r="M187" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N187" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O187" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P187" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q187" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R187" t="e">
         <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T187" t="e">
         <v>#N/A</v>
@@ -17483,25 +17480,25 @@
         <v>552</v>
       </c>
       <c r="M188" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N188" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O188" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P188" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q188" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R188" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S188" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T188" t="e">
         <v>#N/A</v>
@@ -17557,25 +17554,25 @@
         <v>557</v>
       </c>
       <c r="M189" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N189" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O189" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P189" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q189" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R189" t="e">
         <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T189" t="e">
         <v>#N/A</v>
@@ -17631,25 +17628,25 @@
         <v>555</v>
       </c>
       <c r="M190" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N190" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O190" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P190" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q190" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R190" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S190" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T190" t="e">
         <v>#N/A</v>
@@ -17705,19 +17702,19 @@
         <v>551</v>
       </c>
       <c r="M191" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N191" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O191" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P191" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q191" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R191" t="e">
         <v>#N/A</v>
@@ -17779,25 +17776,25 @@
         <v>550</v>
       </c>
       <c r="M192" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N192" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O192" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P192" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q192" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R192" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S192" t="s">
         <v>1151</v>
-      </c>
-      <c r="S192" t="s">
-        <v>1152</v>
       </c>
       <c r="T192" t="e">
         <v>#N/A</v>
@@ -17853,25 +17850,25 @@
         <v>551</v>
       </c>
       <c r="M193" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N193" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O193" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P193" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q193" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R193" t="e">
         <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T193" t="e">
         <v>#N/A</v>
@@ -17927,25 +17924,25 @@
         <v>550</v>
       </c>
       <c r="M194" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N194" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O194" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P194" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q194" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R194" t="e">
         <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T194" t="e">
         <v>#N/A</v>
